--- a/FERMA, ERIC NAMUCO.xlsx
+++ b/FERMA, ERIC NAMUCO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03586B2-F7D3-4119-B69C-0900EB97B13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -307,12 +306,18 @@
   </si>
   <si>
     <t>2/11,18/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>12/27-29/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -959,7 +964,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1007,7 +1011,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1050,7 +1054,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1114,7 +1118,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1174,7 +1178,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1244,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,7 +1307,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1405,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1464,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1525,7 +1529,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1572,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1647,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1833,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1899,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1957,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2023,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2079,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2154,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2197,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2263,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2319,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,25 +2415,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K163" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K164" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2736,7 +2740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2746,7 +2750,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2754,34 +2758,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K163"/>
+  <dimension ref="A2:K164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A98" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A98" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -2802,7 +2806,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -2821,7 +2825,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -2844,7 +2848,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -2859,7 +2863,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -2872,7 +2876,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="52" t="s">
@@ -2889,7 +2893,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -2933,7 +2937,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>51.664999999999999</v>
+        <v>49.914999999999999</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -2943,12 +2947,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>24.582000000000001</v>
+        <v>25.832000000000001</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>44</v>
       </c>
@@ -2970,7 +2974,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>43101</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>43116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>43132</v>
       </c>
@@ -3016,7 +3020,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>43160</v>
       </c>
@@ -3042,7 +3046,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>43191</v>
       </c>
@@ -3068,7 +3072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="21" t="s">
         <v>53</v>
@@ -3090,7 +3094,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="21" t="s">
         <v>55</v>
@@ -3112,7 +3116,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="21" t="s">
         <v>50</v>
@@ -3134,7 +3138,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>43221</v>
       </c>
@@ -3158,7 +3162,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>43252</v>
       </c>
@@ -3178,7 +3182,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>43282</v>
       </c>
@@ -3204,7 +3208,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>43313</v>
       </c>
@@ -3230,7 +3234,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>43344</v>
       </c>
@@ -3256,7 +3260,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>43374</v>
       </c>
@@ -3282,7 +3286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>43405</v>
       </c>
@@ -3308,7 +3312,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="21" t="s">
         <v>59</v>
@@ -3328,7 +3332,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>43435</v>
       </c>
@@ -3354,7 +3358,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="21" t="s">
         <v>59</v>
@@ -3374,7 +3378,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="21" t="s">
         <v>59</v>
@@ -3394,7 +3398,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="21" t="s">
         <v>61</v>
@@ -3414,7 +3418,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>46</v>
       </c>
@@ -3429,7 +3433,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>43466</v>
       </c>
@@ -3455,7 +3459,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="21" t="s">
         <v>59</v>
@@ -3475,7 +3479,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>43497</v>
       </c>
@@ -3501,7 +3505,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="21" t="s">
         <v>50</v>
@@ -3523,7 +3527,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="21" t="s">
         <v>59</v>
@@ -3543,7 +3547,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>43525</v>
       </c>
@@ -3569,7 +3573,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>43556</v>
       </c>
@@ -3595,7 +3599,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>43586</v>
       </c>
@@ -3615,7 +3619,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>43617</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="21" t="s">
         <v>59</v>
@@ -3661,7 +3665,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>43647</v>
       </c>
@@ -3687,7 +3691,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
       <c r="B42" s="21" t="s">
         <v>57</v>
@@ -3709,7 +3713,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>43678</v>
       </c>
@@ -3735,7 +3739,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>43709</v>
       </c>
@@ -3761,7 +3765,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
       <c r="B45" s="21" t="s">
         <v>51</v>
@@ -3783,7 +3787,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
       <c r="B46" s="21" t="s">
         <v>53</v>
@@ -3805,7 +3809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>43739</v>
       </c>
@@ -3831,7 +3835,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
       <c r="B48" s="21" t="s">
         <v>53</v>
@@ -3853,7 +3857,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>43770</v>
       </c>
@@ -3873,7 +3877,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>43800</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
         <v>47</v>
       </c>
@@ -3914,7 +3918,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>43831</v>
       </c>
@@ -3940,7 +3944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="21" t="s">
         <v>70</v>
@@ -3960,7 +3964,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>43862</v>
       </c>
@@ -3984,7 +3988,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>43891</v>
       </c>
@@ -4004,7 +4008,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>43922</v>
       </c>
@@ -4024,7 +4028,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>43952</v>
       </c>
@@ -4044,7 +4048,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>43983</v>
       </c>
@@ -4064,7 +4068,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>44013</v>
       </c>
@@ -4090,7 +4094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>44044</v>
       </c>
@@ -4110,7 +4114,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>44075</v>
       </c>
@@ -4130,7 +4134,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>44105</v>
       </c>
@@ -4150,7 +4154,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>44136</v>
       </c>
@@ -4170,7 +4174,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>44166</v>
       </c>
@@ -4194,7 +4198,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="50" t="s">
         <v>48</v>
       </c>
@@ -4209,7 +4213,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>44197</v>
       </c>
@@ -4229,7 +4233,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>44228</v>
       </c>
@@ -4249,7 +4253,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>44256</v>
       </c>
@@ -4269,7 +4273,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>44287</v>
       </c>
@@ -4289,7 +4293,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>44317</v>
       </c>
@@ -4309,7 +4313,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>44348</v>
       </c>
@@ -4335,7 +4339,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>44378</v>
       </c>
@@ -4361,7 +4365,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
       <c r="B73" s="21" t="s">
         <v>50</v>
@@ -4383,7 +4387,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>44409</v>
       </c>
@@ -4409,7 +4413,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="42">
         <v>44440</v>
       </c>
@@ -4429,7 +4433,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
         <v>44470</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>
       <c r="B77" s="21" t="s">
         <v>50</v>
@@ -4477,7 +4481,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="42"/>
       <c r="B78" s="21" t="s">
         <v>59</v>
@@ -4497,7 +4501,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="42">
         <v>44501</v>
       </c>
@@ -4523,7 +4527,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="42">
         <v>44531</v>
       </c>
@@ -4547,7 +4551,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
       <c r="B81" s="21" t="s">
         <v>51</v>
@@ -4569,7 +4573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
       <c r="B82" s="21" t="s">
         <v>83</v>
@@ -4591,7 +4595,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>
       <c r="B83" s="21" t="s">
         <v>59</v>
@@ -4611,7 +4615,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="42"/>
       <c r="B84" s="21" t="s">
         <v>53</v>
@@ -4633,7 +4637,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="50" t="s">
         <v>49</v>
       </c>
@@ -4651,7 +4655,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="42">
         <v>44562</v>
       </c>
@@ -4677,7 +4681,7 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="42"/>
       <c r="B87" s="21" t="s">
         <v>50</v>
@@ -4699,7 +4703,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="42"/>
       <c r="B88" s="21" t="s">
         <v>59</v>
@@ -4719,7 +4723,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
       <c r="B89" s="21" t="s">
         <v>55</v>
@@ -4741,7 +4745,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="42">
         <v>44593</v>
       </c>
@@ -4767,7 +4771,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="42"/>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -4783,7 +4787,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="51"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="42">
         <v>44621</v>
       </c>
@@ -4803,7 +4807,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="42">
         <v>44652</v>
       </c>
@@ -4829,7 +4833,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="42"/>
       <c r="B94" s="21" t="s">
         <v>59</v>
@@ -4849,7 +4853,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="42">
         <v>44682</v>
       </c>
@@ -4875,7 +4879,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="42"/>
       <c r="B96" s="21" t="s">
         <v>59</v>
@@ -4895,7 +4899,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="42">
         <v>44713</v>
       </c>
@@ -4921,7 +4925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="42">
         <v>44743</v>
       </c>
@@ -4945,7 +4949,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="42">
         <v>44774</v>
       </c>
@@ -4965,7 +4969,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="42">
         <v>44805</v>
       </c>
@@ -4985,7 +4989,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="42">
         <v>44835</v>
       </c>
@@ -5011,7 +5015,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="42">
         <v>44866</v>
       </c>
@@ -5037,25 +5041,35 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="42"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="14"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="42">
+        <v>44896</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="41"/>
       <c r="E103" s="10"/>
       <c r="F103" s="21"/>
-      <c r="G103" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="41"/>
       <c r="I103" s="10"/>
       <c r="J103" s="12"/>
-      <c r="K103" s="21"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K103" s="51">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="42"/>
-      <c r="B104" s="21"/>
+      <c r="B104" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="C104" s="14"/>
       <c r="D104" s="41"/>
       <c r="E104" s="10"/>
@@ -5067,13 +5081,19 @@
       <c r="H104" s="41"/>
       <c r="I104" s="10"/>
       <c r="J104" s="12"/>
-      <c r="K104" s="21"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="42"/>
+      <c r="K104" s="51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="50" t="s">
+        <v>88</v>
+      </c>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
-      <c r="D105" s="41"/>
+      <c r="D105" s="41">
+        <v>3</v>
+      </c>
       <c r="E105" s="10"/>
       <c r="F105" s="21"/>
       <c r="G105" s="14" t="str">
@@ -5085,7 +5105,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -5101,7 +5121,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="42"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -5117,7 +5137,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -5133,7 +5153,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="42"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -5149,7 +5169,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="42"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -5165,7 +5185,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="42"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -5181,7 +5201,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="42"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -5197,7 +5217,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="42"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -5213,7 +5233,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="42"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -5229,7 +5249,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="42"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -5245,7 +5265,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="42"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -5261,7 +5281,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="42"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -5277,7 +5297,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="42"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -5293,7 +5313,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="42"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -5309,7 +5329,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="42"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -5325,7 +5345,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="42"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -5341,7 +5361,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="42"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -5357,7 +5377,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="42"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -5373,7 +5393,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -5389,7 +5409,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -5405,7 +5425,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -5421,7 +5441,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="42"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -5437,7 +5457,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -5453,7 +5473,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -5469,7 +5489,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="42"/>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -5485,7 +5505,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="42"/>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -5501,7 +5521,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="21"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="42"/>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -5517,7 +5537,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="21"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="42"/>
       <c r="B133" s="21"/>
       <c r="C133" s="14"/>
@@ -5533,7 +5553,7 @@
       <c r="J133" s="12"/>
       <c r="K133" s="21"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="42"/>
       <c r="B134" s="21"/>
       <c r="C134" s="14"/>
@@ -5549,7 +5569,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="42"/>
       <c r="B135" s="21"/>
       <c r="C135" s="14"/>
@@ -5565,7 +5585,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="21"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="42"/>
       <c r="B136" s="21"/>
       <c r="C136" s="14"/>
@@ -5581,7 +5601,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="21"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="42"/>
       <c r="B137" s="21"/>
       <c r="C137" s="14"/>
@@ -5597,7 +5617,7 @@
       <c r="J137" s="12"/>
       <c r="K137" s="21"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="42"/>
       <c r="B138" s="21"/>
       <c r="C138" s="14"/>
@@ -5613,7 +5633,7 @@
       <c r="J138" s="12"/>
       <c r="K138" s="21"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="42"/>
       <c r="B139" s="21"/>
       <c r="C139" s="14"/>
@@ -5629,7 +5649,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="21"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="42"/>
       <c r="B140" s="21"/>
       <c r="C140" s="14"/>
@@ -5645,7 +5665,7 @@
       <c r="J140" s="12"/>
       <c r="K140" s="21"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="42"/>
       <c r="B141" s="21"/>
       <c r="C141" s="14"/>
@@ -5661,7 +5681,7 @@
       <c r="J141" s="12"/>
       <c r="K141" s="21"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="42"/>
       <c r="B142" s="21"/>
       <c r="C142" s="14"/>
@@ -5677,7 +5697,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="21"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="42"/>
       <c r="B143" s="21"/>
       <c r="C143" s="14"/>
@@ -5693,7 +5713,7 @@
       <c r="J143" s="12"/>
       <c r="K143" s="21"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="42"/>
       <c r="B144" s="21"/>
       <c r="C144" s="14"/>
@@ -5709,7 +5729,7 @@
       <c r="J144" s="12"/>
       <c r="K144" s="21"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="42"/>
       <c r="B145" s="21"/>
       <c r="C145" s="14"/>
@@ -5725,7 +5745,7 @@
       <c r="J145" s="12"/>
       <c r="K145" s="21"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="42"/>
       <c r="B146" s="21"/>
       <c r="C146" s="14"/>
@@ -5741,7 +5761,7 @@
       <c r="J146" s="12"/>
       <c r="K146" s="21"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="42"/>
       <c r="B147" s="21"/>
       <c r="C147" s="14"/>
@@ -5757,7 +5777,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="21"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="42"/>
       <c r="B148" s="21"/>
       <c r="C148" s="14"/>
@@ -5773,7 +5793,7 @@
       <c r="J148" s="12"/>
       <c r="K148" s="21"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="42"/>
       <c r="B149" s="21"/>
       <c r="C149" s="14"/>
@@ -5789,7 +5809,7 @@
       <c r="J149" s="12"/>
       <c r="K149" s="21"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="42"/>
       <c r="B150" s="21"/>
       <c r="C150" s="14"/>
@@ -5805,7 +5825,7 @@
       <c r="J150" s="12"/>
       <c r="K150" s="21"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="42"/>
       <c r="B151" s="21"/>
       <c r="C151" s="14"/>
@@ -5821,7 +5841,7 @@
       <c r="J151" s="12"/>
       <c r="K151" s="21"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="42"/>
       <c r="B152" s="21"/>
       <c r="C152" s="14"/>
@@ -5837,7 +5857,7 @@
       <c r="J152" s="12"/>
       <c r="K152" s="21"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="42"/>
       <c r="B153" s="21"/>
       <c r="C153" s="14"/>
@@ -5853,7 +5873,7 @@
       <c r="J153" s="12"/>
       <c r="K153" s="21"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="42"/>
       <c r="B154" s="21"/>
       <c r="C154" s="14"/>
@@ -5869,7 +5889,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="21"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="42"/>
       <c r="B155" s="21"/>
       <c r="C155" s="14"/>
@@ -5885,7 +5905,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="21"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="42"/>
       <c r="B156" s="21"/>
       <c r="C156" s="14"/>
@@ -5901,7 +5921,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="21"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="42"/>
       <c r="B157" s="21"/>
       <c r="C157" s="14"/>
@@ -5917,7 +5937,7 @@
       <c r="J157" s="12"/>
       <c r="K157" s="21"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="42"/>
       <c r="B158" s="21"/>
       <c r="C158" s="14"/>
@@ -5933,7 +5953,7 @@
       <c r="J158" s="12"/>
       <c r="K158" s="21"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="42"/>
       <c r="B159" s="21"/>
       <c r="C159" s="14"/>
@@ -5949,7 +5969,7 @@
       <c r="J159" s="12"/>
       <c r="K159" s="21"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="42"/>
       <c r="B160" s="21"/>
       <c r="C160" s="14"/>
@@ -5965,7 +5985,7 @@
       <c r="J160" s="12"/>
       <c r="K160" s="21"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="42"/>
       <c r="B161" s="21"/>
       <c r="C161" s="14"/>
@@ -5981,7 +6001,7 @@
       <c r="J161" s="12"/>
       <c r="K161" s="21"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="42"/>
       <c r="B162" s="21"/>
       <c r="C162" s="14"/>
@@ -5997,21 +6017,37 @@
       <c r="J162" s="12"/>
       <c r="K162" s="21"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="43"/>
-      <c r="B163" s="16"/>
-      <c r="C163" s="44"/>
-      <c r="D163" s="45"/>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="42"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="41"/>
       <c r="E163" s="10"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H163" s="45"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H163" s="41"/>
       <c r="I163" s="10"/>
-      <c r="J163" s="13"/>
-      <c r="K163" s="16"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="21"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="43"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="45"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="45"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6028,10 +6064,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6054,28 +6090,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -6088,7 +6124,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -6117,7 +6153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>8.9149999999999991</v>
       </c>
@@ -6141,17 +6177,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -6172,7 +6208,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -6199,7 +6235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -6225,7 +6261,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -6251,7 +6287,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -6277,7 +6313,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -6303,7 +6339,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -6329,7 +6365,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -6355,7 +6391,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -6381,7 +6417,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -6401,7 +6437,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -6421,7 +6457,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -6441,7 +6477,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -6462,7 +6498,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -6483,7 +6519,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -6504,7 +6540,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -6525,7 +6561,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -6546,7 +6582,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -6567,7 +6603,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -6588,7 +6624,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -6609,7 +6645,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -6630,7 +6666,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -6651,7 +6687,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -6672,7 +6708,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -6693,7 +6729,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -6714,7 +6750,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -6735,7 +6771,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -6756,7 +6792,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -6777,7 +6813,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -6798,7 +6834,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -6819,7 +6855,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -6840,7 +6876,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -6861,7 +6897,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -6870,7 +6906,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -6879,7 +6915,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -6888,7 +6924,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -6897,7 +6933,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -6906,7 +6942,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -6915,7 +6951,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -6924,7 +6960,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -6933,7 +6969,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -6942,7 +6978,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -6951,7 +6987,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -6960,7 +6996,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -6969,7 +7005,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -6978,7 +7014,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -6987,7 +7023,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -6996,7 +7032,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -7005,7 +7041,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -7014,7 +7050,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -7023,7 +7059,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -7032,7 +7068,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -7041,7 +7077,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -7050,7 +7086,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -7059,7 +7095,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -7068,7 +7104,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -7077,7 +7113,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -7086,7 +7122,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -7095,7 +7131,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -7104,7 +7140,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -7113,7 +7149,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -7122,7 +7158,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/FERMA, ERIC NAMUCO.xlsx
+++ b/FERMA, ERIC NAMUCO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE9B614-F92C-4A35-A34D-A731714B01F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -317,7 +310,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -548,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,9 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -616,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -628,10 +618,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -640,13 +630,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1011,7 +998,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1054,7 +1041,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1118,7 +1105,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,7 +1165,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1231,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1307,7 +1294,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1392,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1451,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1516,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1559,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1634,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1820,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1886,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +1944,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2010,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2066,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2141,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2184,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2250,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2306,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,25 +2402,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K164" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K164" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2740,7 +2727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2750,7 +2737,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2758,146 +2745,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A98" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A99" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="29" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="27" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="27" t="s">
+      <c r="G4" s="52"/>
+      <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="28" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="H5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="I5" s="27"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2924,3130 +2902,3172 @@
       <c r="J8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14">
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>49.914999999999999</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14">
+        <v>56.164999999999999</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>25.832000000000001</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+        <v>31.082000000000001</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="36" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="36" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
+      <c r="J10" s="11"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="40">
         <v>43101</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H11" s="41">
+      <c r="C11" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H11" s="39">
         <v>1</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="51">
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="49">
         <v>43116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="40">
         <v>43132</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
+      <c r="B12" s="20"/>
+      <c r="C12" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="40">
         <v>43160</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H13" s="41">
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="39">
         <v>1</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="51">
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="49">
         <v>43161</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="42">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="40">
         <v>43191</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D14" s="41">
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="39">
         <v>2</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H15" s="41">
+      <c r="C15" s="13"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H15" s="39">
         <v>2</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="21" t="s">
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="41">
+      <c r="C16" s="13"/>
+      <c r="D16" s="39">
         <v>1</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="51">
+      <c r="E16" s="9"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="49">
         <v>43220</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H17" s="41">
+      <c r="C17" s="13"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="39">
         <v>1</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="51">
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="49">
         <v>43217</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="40">
         <v>43221</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D18" s="41">
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="39">
         <v>1</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
+      <c r="E18" s="9"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="40">
         <v>43252</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="44">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="42">
+      <c r="B19" s="15"/>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="40">
         <v>43282</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H20" s="41">
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H20" s="39">
         <v>1</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="51">
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="49">
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="42">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
         <v>43313</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H21" s="41">
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="39">
         <v>1</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="51">
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="49">
         <v>43325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="42">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="40">
         <v>43344</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H22" s="41">
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H22" s="39">
         <v>1</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="51">
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="49">
         <v>43362</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="42">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="40">
         <v>43374</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H23" s="41">
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H23" s="39">
         <v>3</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="21" t="s">
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="42">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="40">
         <v>43405</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H24" s="41">
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H24" s="39">
         <v>1</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="51">
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="49">
         <v>43413</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="51">
+      <c r="C25" s="13"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="49">
         <v>43423</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="42">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="40">
         <v>43435</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D26" s="41">
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="39">
         <v>2</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="21" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="21" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="51">
+      <c r="C27" s="13"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="49">
         <v>43452</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="21" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="51">
+      <c r="C28" s="13"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="49">
         <v>43427</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="21" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="40"/>
+      <c r="B29" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="41">
+      <c r="C29" s="13"/>
+      <c r="D29" s="39">
         <v>2</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="21"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="42">
+      <c r="B30" s="20"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="40">
         <v>43466</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H31" s="41">
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H31" s="39">
         <v>1</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="51">
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="49">
         <v>43480</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="21" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="51">
+      <c r="C32" s="13"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="49">
         <v>43486</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="42">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="40">
         <v>43497</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H33" s="41">
+      <c r="C33" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H33" s="39">
         <v>1</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="51">
+      <c r="I33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="49">
         <v>43497</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="21" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="40"/>
+      <c r="B34" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H34" s="41">
+      <c r="C34" s="13"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H34" s="39">
         <v>1</v>
       </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="51">
+      <c r="I34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="49">
         <v>43510</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="21" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="51">
+      <c r="C35" s="13"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="49">
         <v>43514</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="42">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="40">
         <v>43525</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H36" s="41">
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H36" s="39">
         <v>1</v>
       </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="51">
+      <c r="I36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="49">
         <v>43528</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="42">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="40">
         <v>43556</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H37" s="41">
+      <c r="C37" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H37" s="39">
         <v>1</v>
       </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="51">
+      <c r="I37" s="9"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="49">
         <v>43578</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="42">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="40">
         <v>43586</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="42">
+      <c r="B38" s="20"/>
+      <c r="C38" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="40">
         <v>43617</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H39" s="41">
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D39" s="39"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H39" s="39">
         <v>1</v>
       </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="51">
+      <c r="I39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="49">
         <v>43620</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="21" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="51">
+      <c r="C40" s="13"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="49">
         <v>43642</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="42">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="40">
         <v>43647</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D41" s="41">
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="39">
         <v>1</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="51">
+      <c r="E41" s="9"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="49">
         <v>43654</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="21" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="40"/>
+      <c r="B42" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H42" s="41">
+      <c r="C42" s="13"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H42" s="39">
         <v>3</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="51" t="s">
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="42">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="40">
         <v>43678</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H43" s="41">
+      <c r="C43" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H43" s="39">
         <v>2</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="21" t="s">
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="42">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="40">
         <v>43709</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H44" s="41">
+      <c r="C44" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H44" s="39">
         <v>1</v>
       </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="51">
+      <c r="I44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="49">
         <v>43714</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="21" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
+      <c r="B45" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="41">
+      <c r="C45" s="13"/>
+      <c r="D45" s="39">
         <v>2</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="51" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="49" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="21" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="40"/>
+      <c r="B46" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H46" s="41">
+      <c r="C46" s="13"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H46" s="39">
         <v>3</v>
       </c>
-      <c r="I46" s="10"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="51" t="s">
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="49" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="42">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="40">
         <v>43739</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H47" s="41">
+      <c r="C47" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H47" s="39">
         <v>1</v>
       </c>
-      <c r="I47" s="10"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="51">
+      <c r="I47" s="9"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="49">
         <v>43762</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="21" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="40"/>
+      <c r="B48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H48" s="41">
+      <c r="C48" s="13"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H48" s="39">
         <v>2</v>
       </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="51" t="s">
+      <c r="I48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="42">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="40">
         <v>43770</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="21"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="42">
+      <c r="B49" s="20"/>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="40">
         <v>43800</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D50" s="41">
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D50" s="39">
         <v>4</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="21" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="50" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="21"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="42">
+      <c r="B51" s="20"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="40">
         <v>43831</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H52" s="41">
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H52" s="39">
         <v>3</v>
       </c>
-      <c r="I52" s="10"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="21" t="s">
+      <c r="I52" s="9"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="21" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="40"/>
+      <c r="B53" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="21" t="s">
+      <c r="C53" s="13"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H53" s="39"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="42">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="40">
         <v>43862</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="21" t="s">
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H54" s="39"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="42">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="40">
         <v>43891</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="21"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="42">
+      <c r="B55" s="20"/>
+      <c r="C55" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H55" s="39"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="40">
         <v>43922</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="21"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="42">
+      <c r="B56" s="20"/>
+      <c r="C56" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H56" s="39"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="40">
         <v>43952</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="42">
+      <c r="B57" s="20"/>
+      <c r="C57" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="40">
         <v>43983</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="21"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="42">
+      <c r="B58" s="20"/>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H58" s="39"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="20"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="40">
         <v>44013</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H59" s="41">
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D59" s="39"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H59" s="39">
         <v>2</v>
       </c>
-      <c r="I59" s="10"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="21" t="s">
+      <c r="I59" s="9"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="42">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="40">
         <v>44044</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="21"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="42">
+      <c r="B60" s="20"/>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D60" s="39"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H60" s="39"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="40">
         <v>44075</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="21"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="42">
+      <c r="B61" s="20"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H61" s="39"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="40">
         <v>44105</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H62" s="41"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="21"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="42">
+      <c r="B62" s="20"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D62" s="39"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H62" s="39"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="20"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="40">
         <v>44136</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="21"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="42">
+      <c r="B63" s="20"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D63" s="39"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H63" s="39"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="20"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="40">
         <v>44166</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D64" s="41">
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D64" s="39">
         <v>5</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="21"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="50" t="s">
+      <c r="E64" s="9"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H64" s="39"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="21"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="42">
+      <c r="B65" s="20"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="40">
         <v>44197</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H66" s="41"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="21"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="42">
+      <c r="B66" s="20"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="20"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="40">
         <v>44228</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H67" s="41"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="21"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="42">
+      <c r="B67" s="20"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D67" s="39"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H67" s="39"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="20"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="40">
         <v>44256</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H68" s="41"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="21"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="42">
+      <c r="B68" s="20"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D68" s="39"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H68" s="39"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="40">
         <v>44287</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H69" s="41"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="21"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="42">
+      <c r="B69" s="20"/>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D69" s="39"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H69" s="39"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="20"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="40">
         <v>44317</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D70" s="41"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H70" s="41"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="21"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="42">
+      <c r="B70" s="20"/>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D70" s="39"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H70" s="39"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="20"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="40">
         <v>44348</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D71" s="41"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H71" s="41">
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D71" s="39"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H71" s="39">
         <v>1</v>
       </c>
-      <c r="I71" s="10"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="51">
+      <c r="I71" s="9"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="49">
         <v>44357</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="42">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="40">
         <v>44378</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D72" s="41"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H72" s="41">
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="39"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H72" s="39">
         <v>1</v>
       </c>
-      <c r="I72" s="10"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="51">
+      <c r="I72" s="9"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="49">
         <v>44386</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="21" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="40"/>
+      <c r="B73" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H73" s="41">
+      <c r="C73" s="13"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H73" s="39">
         <v>1</v>
       </c>
-      <c r="I73" s="10"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="51">
+      <c r="I73" s="9"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="49">
         <v>44393</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="42">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="40">
         <v>44409</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D74" s="41"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H74" s="41">
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D74" s="39"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H74" s="39">
         <v>2</v>
       </c>
-      <c r="I74" s="10"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="21" t="s">
+      <c r="I74" s="9"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="42">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="40">
         <v>44440</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D75" s="41"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H75" s="41"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="21"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="42">
+      <c r="B75" s="20"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D75" s="39"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H75" s="39"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="20"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40">
         <v>44470</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H76" s="41">
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="39"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="39">
         <v>1</v>
       </c>
-      <c r="I76" s="10"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="51">
+      <c r="I76" s="9"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="49">
         <v>44484</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="21" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40"/>
+      <c r="B77" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="41">
+      <c r="C77" s="13"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="39">
         <v>1</v>
       </c>
-      <c r="I77" s="10"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="51">
+      <c r="I77" s="9"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="49">
         <v>44489</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="21" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40"/>
+      <c r="B78" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="41"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="51" t="s">
+      <c r="C78" s="13"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H78" s="39"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="49" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
         <v>44501</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H79" s="41">
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D79" s="39"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H79" s="39">
         <v>2</v>
       </c>
-      <c r="I79" s="10"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="21" t="s">
+      <c r="I79" s="9"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
         <v>44531</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C80" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D80" s="41"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H80" s="41"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="51" t="s">
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D80" s="39"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="39"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="49" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="21" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40"/>
+      <c r="B81" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="41">
+      <c r="C81" s="13"/>
+      <c r="D81" s="39">
         <v>2</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="41"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="51" t="s">
+      <c r="E81" s="9"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H81" s="39"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-      <c r="B82" s="21" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40"/>
+      <c r="B82" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="41">
+      <c r="C82" s="13"/>
+      <c r="D82" s="39">
         <v>3</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="41"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="51" t="s">
+      <c r="E82" s="9"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H82" s="39"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="21" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40"/>
+      <c r="B83" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="41"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="51">
+      <c r="C83" s="13"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="39"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="49">
         <v>44552</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
-      <c r="B84" s="21" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40"/>
+      <c r="B84" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H84" s="41">
+      <c r="C84" s="13"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="39">
         <v>2</v>
       </c>
-      <c r="I84" s="10"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="51" t="s">
+      <c r="I84" s="9"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="49" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="50" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="41"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="42">
+      <c r="B85" s="20"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="39"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="20"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
         <v>44562</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D86" s="41"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H86" s="41">
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D86" s="39"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H86" s="39">
         <v>1</v>
       </c>
-      <c r="I86" s="10"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="51">
+      <c r="I86" s="9"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="49">
         <v>44564</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
-      <c r="B87" s="21" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40"/>
+      <c r="B87" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="41">
+      <c r="C87" s="13"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="39">
         <v>1</v>
       </c>
-      <c r="I87" s="10"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="51">
+      <c r="I87" s="9"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="49">
         <v>44582</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
-      <c r="B88" s="21" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40"/>
+      <c r="B88" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="41"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="51" t="s">
+      <c r="C88" s="13"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="39"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="49" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
-      <c r="B89" s="21" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40"/>
+      <c r="B89" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="41">
+      <c r="C89" s="13"/>
+      <c r="D89" s="39">
         <v>1</v>
       </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H89" s="41"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="51">
+      <c r="E89" s="9"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H89" s="39"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="49">
         <v>44592</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="42">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
         <v>44593</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C90" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D90" s="41">
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D90" s="39">
         <v>2</v>
       </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H90" s="41"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="21" t="s">
+      <c r="E90" s="9"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H90" s="39"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="41"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="51"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="42">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="39"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="49"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
         <v>44621</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H92" s="41"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="42">
+      <c r="B92" s="20"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D92" s="39"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H92" s="39"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="20"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
         <v>44652</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C93" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D93" s="41">
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D93" s="39">
         <v>1</v>
       </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H93" s="41"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="51">
+      <c r="E93" s="9"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H93" s="39"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="49">
         <v>44656</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
-      <c r="B94" s="21" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40"/>
+      <c r="B94" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="41"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="51">
+      <c r="C94" s="13"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="39"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="49">
         <v>44659</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="42">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
         <v>44682</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C95" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D95" s="41"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H95" s="41">
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D95" s="39"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H95" s="39">
         <v>1</v>
       </c>
-      <c r="I95" s="10"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="51">
+      <c r="I95" s="9"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="49">
         <v>44697</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
-      <c r="B96" s="21" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40"/>
+      <c r="B96" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="41"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="51">
+      <c r="C96" s="13"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="39"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="49">
         <v>44699</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="42">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
         <v>44713</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D97" s="41">
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D97" s="39">
         <v>2</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H97" s="41"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="21" t="s">
+      <c r="E97" s="9"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H97" s="39"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="42">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
         <v>44743</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C98" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D98" s="41"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H98" s="41">
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D98" s="39"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H98" s="39">
         <v>1</v>
       </c>
-      <c r="I98" s="10"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="21"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="42">
+      <c r="I98" s="9"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="20"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
         <v>44774</v>
       </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D99" s="41"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H99" s="41"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="42">
+      <c r="B99" s="20"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D99" s="39"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H99" s="39"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="20"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
         <v>44805</v>
       </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D100" s="41"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H100" s="41"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="21"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="42">
+      <c r="B100" s="20"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D100" s="39"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H100" s="39"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="20"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
         <v>44835</v>
       </c>
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C101" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D101" s="41"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H101" s="41">
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D101" s="39"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H101" s="39">
         <v>2</v>
       </c>
-      <c r="I101" s="10"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="21" t="s">
+      <c r="I101" s="9"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="42">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
         <v>44866</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C102" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D102" s="41"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H102" s="41">
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D102" s="39"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H102" s="39">
         <v>3</v>
       </c>
-      <c r="I102" s="10"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="21" t="s">
+      <c r="I102" s="9"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="42">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
         <v>44896</v>
       </c>
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C103" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D103" s="41"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H103" s="41"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="51">
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D103" s="39"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H103" s="39"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="49">
         <v>44921</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="42"/>
-      <c r="B104" s="21" t="s">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40"/>
+      <c r="B104" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="14"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="41"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="51" t="s">
+      <c r="C104" s="13"/>
+      <c r="D104" s="39">
+        <v>3</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="39"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="49" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="50" t="s">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="41">
-        <v>3</v>
-      </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H105" s="41"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="21"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="41"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="21"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="41"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="21"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="41"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="21"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="41"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="21"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="42"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="41"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="21"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H111" s="41"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="21"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="41"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="21"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="41"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="21"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="42"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="41"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="21"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="42"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="41"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="21"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="42"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="41"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="21"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="42"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="41"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="21"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="42"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="41"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="21"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="42"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="41"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="21"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="42"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="41"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="21"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="42"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="41"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="21"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="42"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="41"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="21"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="42"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="41"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="21"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="42"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="41"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="21"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="41"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="21"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="41"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="21"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="42"/>
-      <c r="B127" s="21"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="41"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="21"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="42"/>
-      <c r="B128" s="21"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="41"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="41"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="21"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="42"/>
-      <c r="B129" s="21"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="41"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="21"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="42"/>
-      <c r="B130" s="21"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="41"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="21"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="42"/>
-      <c r="B131" s="21"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="41"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="41"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="21"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="42"/>
-      <c r="B132" s="21"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="41"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="41"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="21"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="42"/>
-      <c r="B133" s="21"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="41"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="41"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="21"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="42"/>
-      <c r="B134" s="21"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="41"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="41"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="21"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="42"/>
-      <c r="B135" s="21"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="41"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="41"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="21"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="42"/>
-      <c r="B136" s="21"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="41"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="41"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="21"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="42"/>
-      <c r="B137" s="21"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="41"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="41"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="21"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="42"/>
-      <c r="B138" s="21"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="41"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="41"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="21"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="42"/>
-      <c r="B139" s="21"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="41"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="21"/>
-      <c r="G139" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="41"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="21"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="42"/>
-      <c r="B140" s="21"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="41"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="41"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="21"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="42"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="41"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="41"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="21"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="42"/>
-      <c r="B142" s="21"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="41"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H142" s="41"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="21"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="42"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="41"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H143" s="41"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="21"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="42"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="41"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="41"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="21"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="42"/>
-      <c r="B145" s="21"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="41"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H145" s="41"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="21"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="42"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="41"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H146" s="41"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="21"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="42"/>
-      <c r="B147" s="21"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="41"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H147" s="41"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="21"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="42"/>
-      <c r="B148" s="21"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="41"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H148" s="41"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="21"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="42"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="41"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H149" s="41"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="21"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="42"/>
-      <c r="B150" s="21"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="41"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="21"/>
-      <c r="G150" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H150" s="41"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="21"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="42"/>
-      <c r="B151" s="21"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="41"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="21"/>
-      <c r="G151" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H151" s="41"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="21"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="42"/>
-      <c r="B152" s="21"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="41"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="21"/>
-      <c r="G152" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H152" s="41"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="21"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="42"/>
-      <c r="B153" s="21"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="41"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="21"/>
-      <c r="G153" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H153" s="41"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="21"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="42"/>
-      <c r="B154" s="21"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="41"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H154" s="41"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="21"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="42"/>
-      <c r="B155" s="21"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="41"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H155" s="41"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="21"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="42"/>
-      <c r="B156" s="21"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="41"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H156" s="41"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="21"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="42"/>
-      <c r="B157" s="21"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="41"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H157" s="41"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="21"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="42"/>
-      <c r="B158" s="21"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="41"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H158" s="41"/>
-      <c r="I158" s="10"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="21"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="42"/>
-      <c r="B159" s="21"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="41"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H159" s="41"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="21"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="42"/>
-      <c r="B160" s="21"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="41"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H160" s="41"/>
-      <c r="I160" s="10"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="21"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="42"/>
-      <c r="B161" s="21"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="41"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H161" s="41"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="21"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="42"/>
-      <c r="B162" s="21"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="41"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H162" s="41"/>
-      <c r="I162" s="10"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="21"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="42"/>
-      <c r="B163" s="21"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="41"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H163" s="41"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="12"/>
-      <c r="K163" s="21"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="43"/>
-      <c r="B164" s="16"/>
-      <c r="C164" s="44"/>
-      <c r="D164" s="45"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H164" s="45"/>
-      <c r="I164" s="10"/>
-      <c r="J164" s="13"/>
-      <c r="K164" s="16"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="39"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="20"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D106" s="39"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H106" s="39"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="20"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D107" s="39"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H107" s="39"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="20"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B108" s="20"/>
+      <c r="C108" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D108" s="39"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H108" s="39"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="20"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D109" s="39"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H109" s="39"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="20"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D110" s="39"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H110" s="39">
+        <v>1</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="49">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B111" s="20"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="39"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="20"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="39"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="20"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B113" s="20"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H113" s="39"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="20"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H114" s="39"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="20"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B115" s="20"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H115" s="39"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="20"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B116" s="20"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="39"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="20"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B117" s="20"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="39"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="20"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B118" s="20"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="39"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="20"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H119" s="39"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="20"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H120" s="39"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="20"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H121" s="39"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="20"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="39"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="20"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H123" s="39"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="20"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H124" s="39"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="20"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="40"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="39"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="20"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="40"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H126" s="39"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="20"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="40"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="39"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="20"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="40"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="39"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="40"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="39"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="40"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="40"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="40"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="40"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="40"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="40"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="40"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="40"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="40"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="40"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="40"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="39"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="40"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="39"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="40"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="39"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="40"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="39"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="40"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H155" s="39"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="20"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="40"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="39"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H156" s="39"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="40"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="39"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="40"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="39"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="40"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="39"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="20"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="40"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H160" s="39"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="20"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="40"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H161" s="39"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="20"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="40"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H162" s="39"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="20"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="40"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H163" s="39"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="20"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="41"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="43"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="43"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6064,10 +6084,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6090,45 +6110,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -6140,7 +6160,7 @@
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -6149,1016 +6169,1016 @@
       <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>8.9149999999999991</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>5.8319999999999999</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="47">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="37">
+      <c r="J3" s="47"/>
+      <c r="K3" s="35">
         <f>J4-1</f>
         <v>-1</v>
       </c>
-      <c r="L3" s="47" t="str">
+      <c r="L3" s="45" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="35"/>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="40" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="I6" s="62" t="s">
+      <c r="G6" s="46"/>
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="39">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="37">
         <v>1</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="33">
         <v>2E-3</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="46"/>
+      <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="39">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="37">
         <v>2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>0.25</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="39">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="37">
         <v>3</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>0.375</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="33">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="36">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="36">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="39">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="37">
         <v>4</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="33">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>0.5</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>0.125</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="36">
         <v>0.125</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="36">
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="39">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="37">
         <v>5</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>0.01</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>0.625</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="33">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="36">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="36">
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="39">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="37">
         <v>6</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="33">
         <v>1.2E-2</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>0.75</v>
       </c>
       <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="33">
         <v>0.20800000000000002</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="36">
         <v>0.20800000000000002</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="36">
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="39">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="37">
         <v>7</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E13" s="1">
         <v>7</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="33">
         <v>0.875</v>
       </c>
       <c r="I13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="33">
         <v>0.25</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="36">
         <v>0.25</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="36">
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="39">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="37">
         <v>8</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="33">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>7</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <v>0.29199999999999998</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="36">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="36">
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="39">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="37">
         <v>9</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="33">
         <v>1.9000000000000003E-2</v>
       </c>
       <c r="I15" s="1">
         <v>8</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="33">
         <v>0.33299999999999996</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="36">
         <v>0.33299999999999996</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="36">
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="39">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="37">
         <v>10</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="33">
         <v>2.1000000000000005E-2</v>
       </c>
       <c r="I16" s="1">
         <v>9</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="33">
         <v>0.37499999999999994</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="36">
         <v>0.37499999999999994</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="36">
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="39">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="37">
         <v>11</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="33">
         <v>2.3000000000000007E-2</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="33">
         <v>0.41699999999999993</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="36">
         <v>0.41699999999999993</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="36">
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="39">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="37">
         <v>12</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="33">
         <v>2.5000000000000008E-2</v>
       </c>
       <c r="G18"/>
       <c r="I18" s="1">
         <v>11</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="33">
         <v>0.45799999999999991</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="36">
         <v>0.45799999999999991</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="36">
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="39">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="37">
         <v>13</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <v>2.700000000000001E-2</v>
       </c>
       <c r="G19"/>
       <c r="I19" s="1">
         <v>12</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="33">
         <v>0.49999999999999989</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="36">
         <v>0.49999999999999989</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="36">
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="39">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="37">
         <v>14</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="33">
         <v>2.9000000000000012E-2</v>
       </c>
       <c r="G20"/>
       <c r="I20" s="1">
         <v>13</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="33">
         <v>0.54199999999999993</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="36">
         <v>0.54199999999999993</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="36">
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="39">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="37">
         <v>15</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>3.1000000000000014E-2</v>
       </c>
       <c r="G21"/>
       <c r="I21" s="1">
         <v>14</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="33">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="36">
         <v>0.58299999999999996</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="36">
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="39">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="37">
         <v>16</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="33">
         <v>3.3000000000000015E-2</v>
       </c>
       <c r="G22"/>
       <c r="I22" s="1">
         <v>15</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="33">
         <v>0.625</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="36">
         <v>0.625</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="36">
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="39">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="37">
         <v>17</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="33">
         <v>3.5000000000000017E-2</v>
       </c>
       <c r="G23"/>
       <c r="I23" s="1">
         <v>16</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="33">
         <v>0.66700000000000004</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="36">
         <v>0.66700000000000004</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="36">
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="39">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="37">
         <v>18</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="33">
         <v>3.7000000000000019E-2</v>
       </c>
       <c r="G24"/>
       <c r="I24" s="1">
         <v>17</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="33">
         <v>0.70800000000000007</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="36">
         <v>0.70800000000000007</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="36">
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="39">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="37">
         <v>19</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="33">
         <v>0.04</v>
       </c>
       <c r="G25"/>
       <c r="I25" s="1">
         <v>18</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="33">
         <v>0.75000000000000011</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="36">
         <v>0.75000000000000011</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="36">
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="39">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="37">
         <v>20</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G26"/>
       <c r="I26" s="1">
         <v>19</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="33">
         <v>0.79200000000000015</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="36">
         <v>0.79200000000000015</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="36">
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="39">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="37">
         <v>21</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="33">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="G27"/>
       <c r="I27" s="1">
         <v>20</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="33">
         <v>0.83300000000000018</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="36">
         <v>0.83300000000000018</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="36">
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="39">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="37">
         <v>22</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="33">
         <v>4.6000000000000006E-2</v>
       </c>
       <c r="G28"/>
       <c r="I28" s="1">
         <v>21</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="33">
         <v>0.87500000000000022</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="36">
         <v>0.87500000000000022</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="36">
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="39">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="37">
         <v>23</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="33">
         <v>4.8000000000000008E-2</v>
       </c>
       <c r="G29"/>
       <c r="I29" s="1">
         <v>22</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="33">
         <v>0.91700000000000026</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="36">
         <v>0.91700000000000026</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="36">
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="39">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="37">
         <v>24</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <v>5.000000000000001E-2</v>
       </c>
       <c r="G30"/>
       <c r="I30" s="1">
         <v>23</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="33">
         <v>0.9580000000000003</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="36">
         <v>0.9580000000000003</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="36">
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="39">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="37">
         <v>25</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="33">
         <v>5.2000000000000011E-2</v>
       </c>
       <c r="G31"/>
       <c r="I31" s="1">
         <v>24</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="33">
         <v>1.0000000000000002</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="36">
         <v>1.0000000000000002</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="36">
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="39">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="37">
         <v>26</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="33">
         <v>5.4000000000000013E-2</v>
       </c>
       <c r="G32"/>
       <c r="I32" s="1">
         <v>25</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="33">
         <v>1.0420000000000003</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="36">
         <v>1.0420000000000003</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="36">
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="39">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="37">
         <v>27</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="33">
         <v>5.6000000000000015E-2</v>
       </c>
       <c r="G33"/>
       <c r="I33" s="1">
         <v>26</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="33">
         <v>1.0830000000000002</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="36">
         <v>1.0830000000000002</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="36">
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="39">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="37">
         <v>28</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="33">
         <v>5.8000000000000017E-2</v>
       </c>
       <c r="G34"/>
       <c r="I34" s="1">
         <v>27</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="33">
         <v>1.1250000000000002</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="36">
         <v>1.1250000000000002</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="36">
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="39">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="37">
         <v>29</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="33">
         <v>6.0000000000000019E-2</v>
       </c>
       <c r="G35"/>
       <c r="I35" s="1">
         <v>28</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="33">
         <v>1.1670000000000003</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="36">
         <v>1.1670000000000003</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="36">
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="39">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="37">
         <v>30</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="33">
         <v>6.200000000000002E-2</v>
       </c>
       <c r="G36"/>
       <c r="I36" s="1">
         <v>29</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="33">
         <v>1.2080000000000002</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="36">
         <v>1.2080000000000002</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="36">
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="39">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="37">
         <v>31</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="33">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G37"/>
       <c r="I37" s="1">
         <v>30</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="33">
         <v>1.2500000000000002</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="36">
         <v>1.2500000000000002</v>
       </c>
-      <c r="L37" s="38">
+      <c r="L37" s="36">
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="39">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="37">
         <v>32</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="33">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="39">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="37">
         <v>33</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="33">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="39">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="37">
         <v>34</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="33">
         <v>7.1000000000000008E-2</v>
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="39">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="37">
         <v>35</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="33">
         <v>7.3000000000000009E-2</v>
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="39">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="37">
         <v>36</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="33">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="39">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="37">
         <v>37</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="33">
         <v>7.7000000000000013E-2</v>
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="39">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="37">
         <v>38</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="33">
         <v>7.9000000000000015E-2</v>
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="39">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="37">
         <v>39</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="33">
         <v>8.1000000000000016E-2</v>
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="39">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="37">
         <v>40</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="33">
         <v>8.3000000000000018E-2</v>
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="39">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="37">
         <v>41</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="33">
         <v>8.500000000000002E-2</v>
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="39">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="37">
         <v>42</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="33">
         <v>8.7000000000000022E-2</v>
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="39">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="37">
         <v>43</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="33">
         <v>0.09</v>
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="39">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="37">
         <v>44</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="33">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="39">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="37">
         <v>45</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="33">
         <v>9.4E-2</v>
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="39">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="37">
         <v>46</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="33">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="39">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="37">
         <v>47</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="33">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="39">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="37">
         <v>48</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="33">
         <v>0.1</v>
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="39">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="37">
         <v>49</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="33">
         <v>0.10200000000000001</v>
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="39">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="37">
         <v>50</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="33">
         <v>0.10400000000000001</v>
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="39">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="37">
         <v>51</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="33">
         <v>0.10600000000000001</v>
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="39">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="37">
         <v>52</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D58" s="33">
         <v>0.10800000000000001</v>
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="39">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="37">
         <v>53</v>
       </c>
-      <c r="D59" s="35">
+      <c r="D59" s="33">
         <v>0.11000000000000001</v>
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="39">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="37">
         <v>54</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D60" s="33">
         <v>0.11200000000000002</v>
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="39">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="37">
         <v>55</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="33">
         <v>0.115</v>
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="39">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="37">
         <v>56</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="33">
         <v>0.11700000000000001</v>
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="39">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="37">
         <v>57</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="33">
         <v>0.11900000000000001</v>
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="39">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="37">
         <v>58</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="33">
         <v>0.12100000000000001</v>
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="39">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="37">
         <v>59</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="33">
         <v>0.12300000000000001</v>
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="39">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="37">
         <v>60</v>
       </c>
-      <c r="D66" s="35">
+      <c r="D66" s="33">
         <v>0.125</v>
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/FERMA, ERIC NAMUCO.xlsx
+++ b/FERMA, ERIC NAMUCO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE9B614-F92C-4A35-A34D-A731714B01F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -310,7 +309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -998,7 +997,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1041,7 +1040,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1105,7 +1104,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1165,7 +1164,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1231,7 +1230,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1293,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,7 +1391,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1450,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1515,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1558,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1633,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1819,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1885,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1943,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2009,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2065,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2140,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2183,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2249,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2305,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,25 +2401,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K164" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K164" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2727,7 +2726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2737,7 +2736,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2745,34 +2744,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A99" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A99" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+      <selection pane="bottomLeft" activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2793,7 +2792,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2811,7 +2810,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2833,7 +2832,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2841,7 +2840,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2854,7 +2853,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2871,7 +2870,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2915,7 +2914,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>56.164999999999999</v>
+        <v>57.414999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2925,12 +2924,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>31.082000000000001</v>
+        <v>31.332000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2952,7 +2951,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>43116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -2998,7 +2997,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
@@ -3072,7 +3071,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>55</v>
@@ -3094,7 +3093,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>50</v>
@@ -3116,7 +3115,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -3140,7 +3139,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43252</v>
       </c>
@@ -3160,7 +3159,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43282</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43374</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43405</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>59</v>
@@ -3310,7 +3309,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43435</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>59</v>
@@ -3356,7 +3355,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -3376,7 +3375,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>61</v>
@@ -3396,7 +3395,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>46</v>
       </c>
@@ -3411,7 +3410,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43466</v>
       </c>
@@ -3437,7 +3436,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>59</v>
@@ -3457,7 +3456,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43497</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -3505,7 +3504,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>59</v>
@@ -3525,7 +3524,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43525</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43556</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43586</v>
       </c>
@@ -3597,7 +3596,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43617</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
@@ -3643,7 +3642,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43647</v>
       </c>
@@ -3669,7 +3668,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>57</v>
@@ -3691,7 +3690,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43678</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43709</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>51</v>
@@ -3765,7 +3764,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -3787,7 +3786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43739</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>53</v>
@@ -3835,7 +3834,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43770</v>
       </c>
@@ -3855,7 +3854,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43800</v>
       </c>
@@ -3881,7 +3880,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>47</v>
       </c>
@@ -3896,7 +3895,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43831</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>70</v>
@@ -3942,7 +3941,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43862</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43891</v>
       </c>
@@ -3986,7 +3985,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43922</v>
       </c>
@@ -4006,7 +4005,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43952</v>
       </c>
@@ -4026,7 +4025,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43983</v>
       </c>
@@ -4046,7 +4045,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44013</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44044</v>
       </c>
@@ -4092,7 +4091,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44075</v>
       </c>
@@ -4112,7 +4111,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44105</v>
       </c>
@@ -4132,7 +4131,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44136</v>
       </c>
@@ -4152,7 +4151,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44166</v>
       </c>
@@ -4176,7 +4175,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>48</v>
       </c>
@@ -4191,7 +4190,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44197</v>
       </c>
@@ -4211,7 +4210,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44228</v>
       </c>
@@ -4231,7 +4230,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44256</v>
       </c>
@@ -4251,7 +4250,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44287</v>
       </c>
@@ -4271,7 +4270,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44317</v>
       </c>
@@ -4291,7 +4290,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44348</v>
       </c>
@@ -4317,7 +4316,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44378</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>50</v>
@@ -4365,7 +4364,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44409</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44440</v>
       </c>
@@ -4411,7 +4410,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44470</v>
       </c>
@@ -4437,7 +4436,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>50</v>
@@ -4459,7 +4458,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>59</v>
@@ -4479,7 +4478,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44501</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44531</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>51</v>
@@ -4551,7 +4550,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>83</v>
@@ -4573,7 +4572,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>59</v>
@@ -4593,7 +4592,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>53</v>
@@ -4615,7 +4614,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>49</v>
       </c>
@@ -4633,7 +4632,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44562</v>
       </c>
@@ -4659,7 +4658,7 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>50</v>
@@ -4681,7 +4680,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>59</v>
@@ -4701,7 +4700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>55</v>
@@ -4723,7 +4722,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44593</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4765,7 +4764,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44621</v>
       </c>
@@ -4785,7 +4784,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44652</v>
       </c>
@@ -4811,7 +4810,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>59</v>
@@ -4831,7 +4830,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44682</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>59</v>
@@ -4877,7 +4876,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44713</v>
       </c>
@@ -4903,7 +4902,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44743</v>
       </c>
@@ -4927,7 +4926,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44774</v>
       </c>
@@ -4947,7 +4946,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44805</v>
       </c>
@@ -4967,7 +4966,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44835</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44866</v>
       </c>
@@ -5019,7 +5018,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44896</v>
       </c>
@@ -5043,7 +5042,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>83</v>
@@ -5065,7 +5064,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>88</v>
       </c>
@@ -5083,7 +5082,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44927</v>
       </c>
@@ -5103,7 +5102,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>44958</v>
       </c>
@@ -5123,7 +5122,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44986</v>
       </c>
@@ -5143,7 +5142,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45017</v>
       </c>
@@ -5163,7 +5162,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45047</v>
       </c>
@@ -5189,29 +5188,33 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45078</v>
       </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45108</v>
       </c>
-      <c r="B112" s="20"/>
+      <c r="B112" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
@@ -5220,12 +5223,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H112" s="39"/>
+      <c r="H112" s="39">
+        <v>1</v>
+      </c>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K112" s="49">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45139</v>
       </c>
@@ -5243,7 +5250,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45170</v>
       </c>
@@ -5261,7 +5268,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45200</v>
       </c>
@@ -5279,7 +5286,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45231</v>
       </c>
@@ -5297,7 +5304,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45261</v>
       </c>
@@ -5315,7 +5322,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45292</v>
       </c>
@@ -5333,7 +5340,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5349,7 +5356,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5365,7 +5372,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5381,7 +5388,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5397,7 +5404,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5413,7 +5420,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5429,7 +5436,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5445,7 +5452,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5461,7 +5468,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5477,7 +5484,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5493,7 +5500,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5509,7 +5516,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5525,7 +5532,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5541,7 +5548,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5557,7 +5564,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5573,7 +5580,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5589,7 +5596,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5605,7 +5612,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5621,7 +5628,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5637,7 +5644,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5653,7 +5660,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5669,7 +5676,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5685,7 +5692,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5701,7 +5708,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5717,7 +5724,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5733,7 +5740,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5749,7 +5756,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5765,7 +5772,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5781,7 +5788,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5797,7 +5804,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5813,7 +5820,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5829,7 +5836,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5845,7 +5852,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5861,7 +5868,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -5877,7 +5884,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -5893,7 +5900,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -5909,7 +5916,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -5925,7 +5932,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -5941,7 +5948,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -5957,7 +5964,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -5973,7 +5980,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5989,7 +5996,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6005,7 +6012,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6021,7 +6028,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6037,7 +6044,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6053,7 +6060,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41"/>
       <c r="B164" s="15"/>
       <c r="C164" s="42"/>
@@ -6084,10 +6091,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6110,28 +6117,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6144,7 +6151,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6173,7 +6180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>8.9149999999999991</v>
       </c>
@@ -6197,17 +6204,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6228,7 +6235,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6255,7 +6262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6281,7 +6288,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6307,7 +6314,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6333,7 +6340,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6359,7 +6366,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6385,7 +6392,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6411,7 +6418,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6437,7 +6444,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6457,7 +6464,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6477,7 +6484,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6497,7 +6504,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6518,7 +6525,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6539,7 +6546,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6560,7 +6567,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6581,7 +6588,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6602,7 +6609,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6623,7 +6630,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6644,7 +6651,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6665,7 +6672,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6686,7 +6693,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6707,7 +6714,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6728,7 +6735,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6749,7 +6756,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6770,7 +6777,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6791,7 +6798,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6812,7 +6819,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6833,7 +6840,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6854,7 +6861,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6875,7 +6882,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6896,7 +6903,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6917,7 +6924,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6926,7 +6933,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6935,7 +6942,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6944,7 +6951,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6953,7 +6960,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6962,7 +6969,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6971,7 +6978,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6980,7 +6987,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6989,7 +6996,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6998,7 +7005,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7007,7 +7014,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7016,7 +7023,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7025,7 +7032,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7034,7 +7041,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7043,7 +7050,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7052,7 +7059,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7061,7 +7068,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7070,7 +7077,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7079,7 +7086,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7088,7 +7095,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7097,7 +7104,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7106,7 +7113,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7115,7 +7122,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7124,7 +7131,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7133,7 +7140,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7142,7 +7149,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7151,7 +7158,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7160,7 +7167,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7169,7 +7176,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7178,7 +7185,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/FERMA, ERIC NAMUCO.xlsx
+++ b/FERMA, ERIC NAMUCO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FF4B71-E182-4CC2-9FCC-4CE445B935AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -304,12 +305,15 @@
   </si>
   <si>
     <t>12/27-29/2022</t>
+  </si>
+  <si>
+    <t>7/26-27/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -997,7 +1001,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,7 +1044,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1104,7 +1108,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1168,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1234,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,7 +1297,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +1395,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1454,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1519,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1562,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1637,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1823,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1885,7 +1889,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1947,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2013,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2069,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2144,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2187,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2253,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2309,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2388,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2401,25 +2405,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K164" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K165" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2726,7 +2730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2736,7 +2740,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2744,34 +2748,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K164"/>
+  <dimension ref="A2:K165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A99" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A109" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="I112" sqref="I112"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2792,7 +2796,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2810,7 +2814,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2832,7 +2836,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2840,7 +2844,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2853,7 +2857,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2870,7 +2874,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2905,7 +2909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2914,7 +2918,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.414999999999999</v>
+        <v>58.664999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2924,12 +2928,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>31.332000000000001</v>
+        <v>30.582000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2951,7 +2955,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2977,7 +2981,7 @@
         <v>43116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -2997,7 +3001,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3023,7 +3027,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
@@ -3071,7 +3075,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>55</v>
@@ -3093,7 +3097,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>50</v>
@@ -3115,7 +3119,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -3139,7 +3143,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43252</v>
       </c>
@@ -3159,7 +3163,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43282</v>
       </c>
@@ -3185,7 +3189,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -3211,7 +3215,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43374</v>
       </c>
@@ -3263,7 +3267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43405</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>59</v>
@@ -3309,7 +3313,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43435</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>59</v>
@@ -3355,7 +3359,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -3375,7 +3379,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>61</v>
@@ -3395,7 +3399,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>46</v>
       </c>
@@ -3410,7 +3414,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43466</v>
       </c>
@@ -3436,7 +3440,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>59</v>
@@ -3456,7 +3460,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43497</v>
       </c>
@@ -3482,7 +3486,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -3504,7 +3508,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>59</v>
@@ -3524,7 +3528,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43525</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43556</v>
       </c>
@@ -3576,7 +3580,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43586</v>
       </c>
@@ -3596,7 +3600,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43617</v>
       </c>
@@ -3622,7 +3626,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
@@ -3642,7 +3646,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43647</v>
       </c>
@@ -3668,7 +3672,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>57</v>
@@ -3690,7 +3694,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43678</v>
       </c>
@@ -3716,7 +3720,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43709</v>
       </c>
@@ -3742,7 +3746,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>51</v>
@@ -3764,7 +3768,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -3786,7 +3790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43739</v>
       </c>
@@ -3812,7 +3816,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>53</v>
@@ -3834,7 +3838,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43770</v>
       </c>
@@ -3854,7 +3858,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43800</v>
       </c>
@@ -3880,7 +3884,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="48" t="s">
         <v>47</v>
       </c>
@@ -3895,7 +3899,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43831</v>
       </c>
@@ -3921,7 +3925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>70</v>
@@ -3941,7 +3945,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>43862</v>
       </c>
@@ -3965,7 +3969,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>43891</v>
       </c>
@@ -3985,7 +3989,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43922</v>
       </c>
@@ -4005,7 +4009,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43952</v>
       </c>
@@ -4025,7 +4029,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>43983</v>
       </c>
@@ -4045,7 +4049,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44013</v>
       </c>
@@ -4071,7 +4075,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44044</v>
       </c>
@@ -4091,7 +4095,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44075</v>
       </c>
@@ -4111,7 +4115,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44105</v>
       </c>
@@ -4131,7 +4135,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44136</v>
       </c>
@@ -4151,7 +4155,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44166</v>
       </c>
@@ -4175,7 +4179,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>48</v>
       </c>
@@ -4190,7 +4194,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44197</v>
       </c>
@@ -4210,7 +4214,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44228</v>
       </c>
@@ -4230,7 +4234,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44256</v>
       </c>
@@ -4250,7 +4254,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44287</v>
       </c>
@@ -4270,7 +4274,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44317</v>
       </c>
@@ -4290,7 +4294,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44348</v>
       </c>
@@ -4316,7 +4320,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44378</v>
       </c>
@@ -4342,7 +4346,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>50</v>
@@ -4364,7 +4368,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44409</v>
       </c>
@@ -4390,7 +4394,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44440</v>
       </c>
@@ -4410,7 +4414,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44470</v>
       </c>
@@ -4436,7 +4440,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>50</v>
@@ -4458,7 +4462,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>59</v>
@@ -4478,7 +4482,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44501</v>
       </c>
@@ -4504,7 +4508,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44531</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>51</v>
@@ -4550,7 +4554,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>83</v>
@@ -4572,7 +4576,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>59</v>
@@ -4592,7 +4596,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>53</v>
@@ -4614,7 +4618,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>49</v>
       </c>
@@ -4632,7 +4636,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44562</v>
       </c>
@@ -4658,7 +4662,7 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>50</v>
@@ -4680,7 +4684,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>59</v>
@@ -4700,7 +4704,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>55</v>
@@ -4722,7 +4726,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44593</v>
       </c>
@@ -4748,7 +4752,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4764,7 +4768,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44621</v>
       </c>
@@ -4784,7 +4788,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44652</v>
       </c>
@@ -4810,7 +4814,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>59</v>
@@ -4830,7 +4834,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44682</v>
       </c>
@@ -4856,7 +4860,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>59</v>
@@ -4876,7 +4880,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>44713</v>
       </c>
@@ -4902,7 +4906,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>44743</v>
       </c>
@@ -4926,7 +4930,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>44774</v>
       </c>
@@ -4946,7 +4950,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>44805</v>
       </c>
@@ -4966,7 +4970,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44835</v>
       </c>
@@ -4992,7 +4996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>44866</v>
       </c>
@@ -5018,7 +5022,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>44896</v>
       </c>
@@ -5042,7 +5046,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>83</v>
@@ -5064,7 +5068,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>88</v>
       </c>
@@ -5082,7 +5086,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>44927</v>
       </c>
@@ -5102,7 +5106,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>44958</v>
       </c>
@@ -5122,7 +5126,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>44986</v>
       </c>
@@ -5142,7 +5146,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45017</v>
       </c>
@@ -5162,7 +5166,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45047</v>
       </c>
@@ -5188,7 +5192,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45078</v>
       </c>
@@ -5208,20 +5212,22 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45108</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C112" s="13"/>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39">
         <v>1</v>
@@ -5232,11 +5238,11 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B113" s="20"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40"/>
+      <c r="B113" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
@@ -5245,14 +5251,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H113" s="39"/>
+      <c r="H113" s="39">
+        <v>2</v>
+      </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5268,9 +5278,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5286,9 +5296,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5304,9 +5314,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5322,9 +5332,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5340,8 +5350,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40">
+        <v>45292</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5356,7 +5368,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5372,7 +5384,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5388,7 +5400,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5404,7 +5416,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5420,7 +5432,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5436,7 +5448,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5452,7 +5464,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5468,7 +5480,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5484,7 +5496,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5500,7 +5512,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5516,7 +5528,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5532,7 +5544,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5548,7 +5560,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5564,7 +5576,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5580,7 +5592,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5596,7 +5608,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5612,7 +5624,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5628,7 +5640,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5644,7 +5656,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5660,7 +5672,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5676,7 +5688,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5692,7 +5704,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5708,7 +5720,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5724,7 +5736,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5740,7 +5752,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5756,7 +5768,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5772,7 +5784,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5788,7 +5800,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5804,7 +5816,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5820,7 +5832,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5836,7 +5848,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5852,7 +5864,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5868,7 +5880,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -5884,7 +5896,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -5900,7 +5912,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -5916,7 +5928,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -5932,7 +5944,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -5948,7 +5960,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -5964,7 +5976,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -5980,7 +5992,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5996,7 +6008,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6012,7 +6024,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6028,7 +6040,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6044,7 +6056,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6060,21 +6072,37 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="41"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="42"/>
-      <c r="D164" s="43"/>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="40"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="39"/>
       <c r="E164" s="9"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H164" s="43"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="39"/>
       <c r="I164" s="9"/>
-      <c r="J164" s="12"/>
-      <c r="K164" s="15"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="20"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="41"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="43"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H165" s="43"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6091,10 +6119,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6117,28 +6145,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6151,7 +6179,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6180,7 +6208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>8.9149999999999991</v>
       </c>
@@ -6204,17 +6232,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6235,7 +6263,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6262,7 +6290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6288,7 +6316,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6314,7 +6342,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6340,7 +6368,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6366,7 +6394,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6392,7 +6420,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6418,7 +6446,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6444,7 +6472,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6464,7 +6492,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6484,7 +6512,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6504,7 +6532,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6525,7 +6553,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6546,7 +6574,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6567,7 +6595,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6588,7 +6616,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6609,7 +6637,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6630,7 +6658,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6651,7 +6679,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6672,7 +6700,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6693,7 +6721,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6714,7 +6742,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6735,7 +6763,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6756,7 +6784,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6777,7 +6805,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6798,7 +6826,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6819,7 +6847,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6840,7 +6868,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6861,7 +6889,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6882,7 +6910,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6903,7 +6931,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6924,7 +6952,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6933,7 +6961,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6942,7 +6970,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6951,7 +6979,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6960,7 +6988,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6969,7 +6997,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6978,7 +7006,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6987,7 +7015,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6996,7 +7024,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7005,7 +7033,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7014,7 +7042,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7023,7 +7051,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7032,7 +7060,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7041,7 +7069,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7050,7 +7078,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7059,7 +7087,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7068,7 +7096,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7077,7 +7105,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7086,7 +7114,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7095,7 +7123,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7104,7 +7132,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7113,7 +7141,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7122,7 +7150,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7131,7 +7159,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7140,7 +7168,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7149,7 +7177,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7158,7 +7186,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7167,7 +7195,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7176,7 +7204,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7185,7 +7213,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/FERMA, ERIC NAMUCO.xlsx
+++ b/FERMA, ERIC NAMUCO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FF4B71-E182-4CC2-9FCC-4CE445B935AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -313,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1001,7 +1000,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1044,7 +1043,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,7 +1107,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1168,7 +1167,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,7 +1233,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1296,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,7 +1394,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1453,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,7 +1518,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1561,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1636,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1822,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1888,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1946,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2012,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2068,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2144,7 +2143,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2186,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2252,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2308,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,7 +2387,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2405,25 +2404,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K165" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K165" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2730,7 +2729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2740,7 +2739,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2748,34 +2747,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A109" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A109" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <selection pane="bottomLeft" activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2796,7 +2795,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2814,7 +2813,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2836,7 +2835,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2844,7 +2843,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2857,7 +2856,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2874,7 +2873,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2909,7 +2908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2918,7 +2917,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>58.664999999999999</v>
+        <v>59.914999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2928,12 +2927,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>30.582000000000001</v>
+        <v>30.832000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2955,7 +2954,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2981,7 +2980,7 @@
         <v>43116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3001,7 +3000,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
@@ -3075,7 +3074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>55</v>
@@ -3097,7 +3096,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>50</v>
@@ -3119,7 +3118,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -3143,7 +3142,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43252</v>
       </c>
@@ -3163,7 +3162,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43282</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -3241,7 +3240,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43374</v>
       </c>
@@ -3267,7 +3266,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43405</v>
       </c>
@@ -3293,7 +3292,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>59</v>
@@ -3313,7 +3312,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43435</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>59</v>
@@ -3359,7 +3358,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -3379,7 +3378,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>61</v>
@@ -3399,7 +3398,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>46</v>
       </c>
@@ -3414,7 +3413,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43466</v>
       </c>
@@ -3440,7 +3439,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>59</v>
@@ -3460,7 +3459,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43497</v>
       </c>
@@ -3486,7 +3485,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -3508,7 +3507,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>59</v>
@@ -3528,7 +3527,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43525</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43556</v>
       </c>
@@ -3580,7 +3579,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43586</v>
       </c>
@@ -3600,7 +3599,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43617</v>
       </c>
@@ -3626,7 +3625,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
@@ -3646,7 +3645,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43647</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>57</v>
@@ -3694,7 +3693,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43678</v>
       </c>
@@ -3720,7 +3719,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43709</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>51</v>
@@ -3768,7 +3767,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -3790,7 +3789,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43739</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>53</v>
@@ -3838,7 +3837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43770</v>
       </c>
@@ -3858,7 +3857,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43800</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>47</v>
       </c>
@@ -3899,7 +3898,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43831</v>
       </c>
@@ -3925,7 +3924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>70</v>
@@ -3945,7 +3944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43862</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43891</v>
       </c>
@@ -3989,7 +3988,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43922</v>
       </c>
@@ -4009,7 +4008,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43952</v>
       </c>
@@ -4029,7 +4028,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43983</v>
       </c>
@@ -4049,7 +4048,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44013</v>
       </c>
@@ -4075,7 +4074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44044</v>
       </c>
@@ -4095,7 +4094,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44075</v>
       </c>
@@ -4115,7 +4114,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44105</v>
       </c>
@@ -4135,7 +4134,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44136</v>
       </c>
@@ -4155,7 +4154,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44166</v>
       </c>
@@ -4179,7 +4178,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>48</v>
       </c>
@@ -4194,7 +4193,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44197</v>
       </c>
@@ -4214,7 +4213,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44228</v>
       </c>
@@ -4234,7 +4233,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44256</v>
       </c>
@@ -4254,7 +4253,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44287</v>
       </c>
@@ -4274,7 +4273,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44317</v>
       </c>
@@ -4294,7 +4293,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44348</v>
       </c>
@@ -4320,7 +4319,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44378</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>50</v>
@@ -4368,7 +4367,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44409</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44440</v>
       </c>
@@ -4414,7 +4413,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44470</v>
       </c>
@@ -4440,7 +4439,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>50</v>
@@ -4462,7 +4461,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>59</v>
@@ -4482,7 +4481,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44501</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44531</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>51</v>
@@ -4554,7 +4553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>83</v>
@@ -4576,7 +4575,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>59</v>
@@ -4596,7 +4595,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>53</v>
@@ -4618,7 +4617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>49</v>
       </c>
@@ -4636,7 +4635,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44562</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>50</v>
@@ -4684,7 +4683,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>59</v>
@@ -4704,7 +4703,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>55</v>
@@ -4726,7 +4725,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44593</v>
       </c>
@@ -4752,7 +4751,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4768,7 +4767,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44621</v>
       </c>
@@ -4788,7 +4787,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44652</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>59</v>
@@ -4834,7 +4833,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44682</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>59</v>
@@ -4880,7 +4879,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44713</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44743</v>
       </c>
@@ -4930,7 +4929,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44774</v>
       </c>
@@ -4950,7 +4949,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44805</v>
       </c>
@@ -4970,7 +4969,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44835</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44866</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44896</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>83</v>
@@ -5068,7 +5067,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>88</v>
       </c>
@@ -5086,7 +5085,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44927</v>
       </c>
@@ -5106,7 +5105,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>44958</v>
       </c>
@@ -5126,7 +5125,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44986</v>
       </c>
@@ -5146,7 +5145,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45017</v>
       </c>
@@ -5166,7 +5165,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45047</v>
       </c>
@@ -5192,7 +5191,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45078</v>
       </c>
@@ -5212,7 +5211,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45108</v>
       </c>
@@ -5238,7 +5237,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>53</v>
@@ -5260,29 +5259,33 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45139</v>
       </c>
       <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45170</v>
       </c>
-      <c r="B115" s="20"/>
+      <c r="B115" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
@@ -5291,12 +5294,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H115" s="39"/>
+      <c r="H115" s="39">
+        <v>1</v>
+      </c>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K115" s="49">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45200</v>
       </c>
@@ -5314,7 +5321,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45231</v>
       </c>
@@ -5332,7 +5339,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45261</v>
       </c>
@@ -5350,7 +5357,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45292</v>
       </c>
@@ -5368,7 +5375,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5384,7 +5391,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5400,7 +5407,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5416,7 +5423,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5432,7 +5439,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5448,7 +5455,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5464,7 +5471,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5480,7 +5487,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5496,7 +5503,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5512,7 +5519,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5528,7 +5535,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5544,7 +5551,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5560,7 +5567,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5576,7 +5583,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5592,7 +5599,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5608,7 +5615,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5624,7 +5631,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5640,7 +5647,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5656,7 +5663,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5672,7 +5679,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5688,7 +5695,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5704,7 +5711,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5720,7 +5727,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5736,7 +5743,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5752,7 +5759,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5768,7 +5775,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5784,7 +5791,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5800,7 +5807,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5816,7 +5823,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5832,7 +5839,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5848,7 +5855,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5864,7 +5871,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5880,7 +5887,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -5896,7 +5903,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -5912,7 +5919,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -5928,7 +5935,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -5944,7 +5951,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -5960,7 +5967,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -5976,7 +5983,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -5992,7 +5999,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6008,7 +6015,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6024,7 +6031,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6040,7 +6047,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6056,7 +6063,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6072,7 +6079,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6088,7 +6095,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41"/>
       <c r="B165" s="15"/>
       <c r="C165" s="42"/>
@@ -6119,10 +6126,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6145,28 +6152,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6179,7 +6186,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6208,7 +6215,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>8.9149999999999991</v>
       </c>
@@ -6232,17 +6239,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6263,7 +6270,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6290,7 +6297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6316,7 +6323,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6342,7 +6349,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6368,7 +6375,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6394,7 +6401,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6420,7 +6427,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6446,7 +6453,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6472,7 +6479,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6492,7 +6499,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6512,7 +6519,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6532,7 +6539,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6553,7 +6560,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6574,7 +6581,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6595,7 +6602,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6616,7 +6623,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6637,7 +6644,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6658,7 +6665,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6679,7 +6686,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6700,7 +6707,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6721,7 +6728,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6742,7 +6749,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6763,7 +6770,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6784,7 +6791,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6805,7 +6812,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6826,7 +6833,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6847,7 +6854,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6868,7 +6875,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6889,7 +6896,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6910,7 +6917,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6931,7 +6938,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6952,7 +6959,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6961,7 +6968,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6970,7 +6977,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6979,7 +6986,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6988,7 +6995,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6997,7 +7004,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7006,7 +7013,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7015,7 +7022,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7024,7 +7031,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7033,7 +7040,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7042,7 +7049,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7051,7 +7058,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7060,7 +7067,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7069,7 +7076,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7078,7 +7085,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7087,7 +7094,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7096,7 +7103,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7105,7 +7112,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7114,7 +7121,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7123,7 +7130,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7132,7 +7139,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7141,7 +7148,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7150,7 +7157,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7159,7 +7166,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7168,7 +7175,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7177,7 +7184,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7186,7 +7193,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7195,7 +7202,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7204,7 +7211,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7213,7 +7220,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
